--- a/Documentation/experimental-statistical-estimates.xlsx
+++ b/Documentation/experimental-statistical-estimates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\AltEx-KTG-2022\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD2583C-9689-4F1C-A346-335986C315B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF4635-7E66-4122-9F75-FD7C82846D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="4" xr2:uid="{61A47523-4C73-46A7-8719-002454C9A444}"/>
   </bookViews>
@@ -2095,6 +2095,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2138280560"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2150,6 +2151,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="77909312"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -2204,6 +2206,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2138259344"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4164,6 +4167,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2138282640"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4219,6 +4223,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2134356880"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -4273,6 +4278,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2138271408"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7619,7 +7625,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9145,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7">
-        <f>A2/LOG(A2, 2.7182818)/A2</f>
+        <f t="shared" ref="B2:B25" si="0">A2/LOG(A2, 2.7182818)/A2</f>
         <v>0.91023921709708999</v>
       </c>
     </row>
@@ -9154,7 +9160,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <f>A3/LOG(A3, 2.7182818)/A3</f>
+        <f t="shared" si="0"/>
         <v>0.72134751289233556</v>
       </c>
     </row>
@@ -9163,7 +9169,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <f>A4/LOG(A4, 2.7182818)/A4</f>
+        <f t="shared" si="0"/>
         <v>0.62133492805454726</v>
       </c>
     </row>
@@ -9172,7 +9178,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <f>A5/LOG(A5, 2.7182818)/A5</f>
+        <f t="shared" si="0"/>
         <v>0.55811062070810935</v>
       </c>
     </row>
@@ -9181,7 +9187,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <f>A6/LOG(A6, 2.7182818)/A6</f>
+        <f t="shared" si="0"/>
         <v>0.51389833698949328</v>
       </c>
     </row>
@@ -9190,7 +9196,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <f>A7/LOG(A7, 2.7182818)/A7</f>
+        <f t="shared" si="0"/>
         <v>0.48089834192822378</v>
       </c>
     </row>
@@ -9199,7 +9205,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <f>A8/LOG(A8, 2.7182818)/A8</f>
+        <f t="shared" si="0"/>
         <v>0.455119608548545</v>
       </c>
     </row>
@@ -9208,7 +9214,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="7">
-        <f>A9/LOG(A9, 2.7182818)/A9</f>
+        <f t="shared" si="0"/>
         <v>0.43429447735640669</v>
       </c>
     </row>
@@ -9217,7 +9223,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="7">
-        <f>A10/LOG(A10, 2.7182818)/A10</f>
+        <f t="shared" si="0"/>
         <v>0.41703238705812667</v>
       </c>
     </row>
@@ -9226,7 +9232,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="7">
-        <f>A11/LOG(A11, 2.7182818)/A11</f>
+        <f t="shared" si="0"/>
         <v>0.4024296001686089</v>
       </c>
     </row>
@@ -9235,7 +9241,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="7">
-        <f>A12/LOG(A12, 2.7182818)/A12</f>
+        <f t="shared" si="0"/>
         <v>0.38987124116952404</v>
       </c>
     </row>
@@ -9244,7 +9250,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="7">
-        <f>A13/LOG(A13, 2.7182818)/A13</f>
+        <f t="shared" si="0"/>
         <v>0.37892317772281586</v>
       </c>
     </row>
@@ -9253,7 +9259,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="7">
-        <f>A14/LOG(A14, 2.7182818)/A14</f>
+        <f t="shared" si="0"/>
         <v>0.36926936920279024</v>
       </c>
     </row>
@@ -9262,7 +9268,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="7">
-        <f>A15/LOG(A15, 2.7182818)/A15</f>
+        <f t="shared" si="0"/>
         <v>0.36067375644616778</v>
       </c>
     </row>
@@ -9271,7 +9277,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="7">
-        <f>A16/LOG(A16, 2.7182818)/A16</f>
+        <f t="shared" si="0"/>
         <v>0.35295612016948791</v>
       </c>
     </row>
@@ -9280,7 +9286,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="7">
-        <f>A17/LOG(A17, 2.7182818)/A17</f>
+        <f t="shared" si="0"/>
         <v>0.34597625263899601</v>
       </c>
     </row>
@@ -9289,7 +9295,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="7">
-        <f>A18/LOG(A18, 2.7182818)/A18</f>
+        <f t="shared" si="0"/>
         <v>0.33962326833942358</v>
       </c>
     </row>
@@ -9298,7 +9304,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="7">
-        <f>A19/LOG(A19, 2.7182818)/A19</f>
+        <f t="shared" si="0"/>
         <v>0.3338081972005299</v>
       </c>
     </row>
@@ -9307,7 +9313,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="7">
-        <f>A20/LOG(A20, 2.7182818)/A20</f>
+        <f t="shared" si="0"/>
         <v>0.32845873531425313</v>
       </c>
     </row>
@@ -9316,7 +9322,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="7">
-        <f>A21/LOG(A21, 2.7182818)/A21</f>
+        <f t="shared" si="0"/>
         <v>0.32351544976162827</v>
       </c>
     </row>
@@ -9325,7 +9331,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="7">
-        <f>A22/LOG(A22, 2.7182818)/A22</f>
+        <f t="shared" si="0"/>
         <v>0.31892898556477473</v>
       </c>
     </row>
@@ -9334,7 +9340,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="7">
-        <f>A23/LOG(A23, 2.7182818)/A23</f>
+        <f t="shared" si="0"/>
         <v>0.31465797714981386</v>
       </c>
     </row>
@@ -9343,7 +9349,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="7">
-        <f>A24/LOG(A24, 2.7182818)/A24</f>
+        <f t="shared" si="0"/>
         <v>0.31066746402727363</v>
       </c>
     </row>
@@ -9352,7 +9358,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="7">
-        <f>A25/LOG(A25, 2.7182818)/A25</f>
+        <f t="shared" si="0"/>
         <v>0.30692767321675629</v>
       </c>
     </row>
@@ -9443,7 +9449,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7">
-        <f>1/A2/A2</f>
+        <f t="shared" ref="B2:B25" si="0">1/A2/A2</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -9452,7 +9458,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <f>1/A3/A3</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -9461,7 +9467,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <f>1/A4/A4</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
@@ -9470,7 +9476,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <f>1/A5/A5</f>
+        <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -9479,7 +9485,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <f>1/A6/A6</f>
+        <f t="shared" si="0"/>
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
@@ -9488,7 +9494,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <f>1/A7/A7</f>
+        <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
     </row>
@@ -9497,7 +9503,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <f>1/A8/A8</f>
+        <f t="shared" si="0"/>
         <v>1.2345679012345678E-2</v>
       </c>
     </row>
@@ -9506,7 +9512,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="7">
-        <f>1/A9/A9</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
@@ -9515,7 +9521,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="7">
-        <f>1/A10/A10</f>
+        <f t="shared" si="0"/>
         <v>8.2644628099173556E-3</v>
       </c>
     </row>
@@ -9524,7 +9530,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="7">
-        <f>1/A11/A11</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -9533,7 +9539,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="7">
-        <f>1/A12/A12</f>
+        <f t="shared" si="0"/>
         <v>5.9171597633136102E-3</v>
       </c>
     </row>
@@ -9542,7 +9548,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="7">
-        <f>1/A13/A13</f>
+        <f t="shared" si="0"/>
         <v>5.1020408163265302E-3</v>
       </c>
     </row>
@@ -9551,7 +9557,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="7">
-        <f>1/A14/A14</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444444E-3</v>
       </c>
     </row>
@@ -9560,7 +9566,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="7">
-        <f>1/A15/A15</f>
+        <f t="shared" si="0"/>
         <v>3.90625E-3</v>
       </c>
     </row>
@@ -9569,7 +9575,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="7">
-        <f>1/A16/A16</f>
+        <f t="shared" si="0"/>
         <v>3.4602076124567475E-3</v>
       </c>
     </row>
@@ -9578,7 +9584,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="7">
-        <f>1/A17/A17</f>
+        <f t="shared" si="0"/>
         <v>3.0864197530864196E-3</v>
       </c>
     </row>
@@ -9587,7 +9593,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="7">
-        <f>1/A18/A18</f>
+        <f t="shared" si="0"/>
         <v>2.7700831024930748E-3</v>
       </c>
     </row>
@@ -9596,7 +9602,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="7">
-        <f>1/A19/A19</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
@@ -9605,7 +9611,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="7">
-        <f>1/A20/A20</f>
+        <f t="shared" si="0"/>
         <v>2.2675736961451248E-3</v>
       </c>
     </row>
@@ -9614,7 +9620,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="7">
-        <f>1/A21/A21</f>
+        <f t="shared" si="0"/>
         <v>2.0661157024793389E-3</v>
       </c>
     </row>
@@ -9623,7 +9629,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="7">
-        <f>1/A22/A22</f>
+        <f t="shared" si="0"/>
         <v>1.890359168241966E-3</v>
       </c>
     </row>
@@ -9632,7 +9638,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="7">
-        <f>1/A23/A23</f>
+        <f t="shared" si="0"/>
         <v>1.736111111111111E-3</v>
       </c>
     </row>
@@ -9641,7 +9647,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="7">
-        <f>1/A24/A24</f>
+        <f t="shared" si="0"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -9650,7 +9656,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="7">
-        <f>1/A25/A25</f>
+        <f t="shared" si="0"/>
         <v>1.4792899408284025E-3</v>
       </c>
     </row>

--- a/Documentation/experimental-statistical-estimates.xlsx
+++ b/Documentation/experimental-statistical-estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\AltEx-KTG-2022\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF4635-7E66-4122-9F75-FD7C82846D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6241AD6-32D2-47C9-9311-3054232B2E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="4" xr2:uid="{61A47523-4C73-46A7-8719-002454C9A444}"/>
+    <workbookView xWindow="9090" yWindow="1665" windowWidth="24285" windowHeight="17775" xr2:uid="{61A47523-4C73-46A7-8719-002454C9A444}"/>
   </bookViews>
   <sheets>
     <sheet name="Связность (теорема 13)" sheetId="1" r:id="rId1"/>
@@ -1261,32 +1261,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:srgbClr val="000000">
-                      <a:alpha val="40000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
+              <a:rPr lang="ru-RU"/>
               <a:t>Зависимость вероятности от </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:srgbClr val="000000">
-                      <a:alpha val="40000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>C</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1387,10 +1369,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Планарность (теорема 26)'!$A$2:$A$61</c:f>
+              <c:f>'Планарность (теорема 26)'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1479,96 +1461,6 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="59">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1576,7 +1468,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E5CA-4E6F-A350-94C3E5EF8A38}"/>
+              <c16:uniqueId val="{00000000-C715-4797-A0D4-25746F012D5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1635,10 +1527,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Планарность (теорема 26)'!$B$2:$B$61</c:f>
+              <c:f>'Планарность (теорема 26)'!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -1685,146 +1577,56 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E5CA-4E6F-A350-94C3E5EF8A38}"/>
+              <c16:uniqueId val="{00000001-C715-4797-A0D4-25746F012D5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1837,8 +1639,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="77909312"/>
-        <c:axId val="2138280560"/>
+        <c:axId val="2113931215"/>
+        <c:axId val="2106577807"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1877,10 +1679,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Планарность (теорема 26)'!$C$2:$C$61</c:f>
+              <c:f>'Планарность (теорема 26)'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -1927,139 +1729,49 @@
                   <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>2.1333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>1.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.91428571428571437</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.125</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.71111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.5818181818181819</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.49230769230769234</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>0.45714285714285718</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6666666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.21428571428571427</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.1875</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.13636363636363635</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.11538461538461539</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.10714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.2857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.22222222222222221</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.18181818181818182</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.15384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.42666666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,7 +1779,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E5CA-4E6F-A350-94C3E5EF8A38}"/>
+              <c16:uniqueId val="{00000002-C715-4797-A0D4-25746F012D5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2081,20 +1793,52 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77906912"/>
-        <c:axId val="2138259344"/>
+        <c:axId val="2113926415"/>
+        <c:axId val="2106576975"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77909312"/>
+        <c:axId val="2113931215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138280560"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106577807"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2102,7 +1846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138280560"/>
+        <c:axId val="2106577807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +1884,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2150,12 +1896,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77909312"/>
+        <c:crossAx val="2113931215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2138259344"/>
+        <c:axId val="2106576975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,12 +1937,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77906912"/>
+        <c:crossAx val="2113926415"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77906912"/>
+        <c:axId val="2113926415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,7 +1951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138259344"/>
+        <c:crossAx val="2106576975"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7132,8 +6878,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>594732</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171915</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7166,22 +6912,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>29936</xdr:colOff>
+      <xdr:colOff>132418</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>18537</xdr:rowOff>
+      <xdr:rowOff>82705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>599378</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171914</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>51287</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5B2CDB-91EB-4E53-9ADE-079B7AABEF62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE96419-B390-441A-AA49-1E2CCB0A5D1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7624,8 +7370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3699C832-E418-4D78-81B8-5F0668B6B3AC}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8377,8 +8123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF17D575-6979-4D12-87BF-D636DBBF0A29}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8430,7 +8176,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:C61" si="0">B4/A4</f>
+        <f t="shared" ref="C4:C31" si="0">B4/A4</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -8583,541 +8329,215 @@
         <v>1</v>
       </c>
       <c r="B17" s="7">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
+      <c r="B18" s="7">
+        <v>6.4</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
+      <c r="B19" s="7">
+        <v>6.4</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>2.1333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
+      <c r="B20" s="7">
+        <v>6.4</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
+      <c r="B21" s="7">
+        <v>6.4</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
+      <c r="B22" s="7">
+        <v>6.4</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
+      <c r="B23" s="7">
+        <v>6.4</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.91428571428571437</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
+      <c r="B24" s="7">
+        <v>6.4</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>9</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
+      <c r="B25" s="7">
+        <v>6.4</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
+      <c r="B26" s="7">
+        <v>6.4</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>11</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
+      <c r="B27" s="7">
+        <v>6.4</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.5818181818181819</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>12</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
+      <c r="B28" s="7">
+        <v>6.4</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>13</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
+      <c r="B29" s="7">
+        <v>6.4</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.49230769230769234</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>14</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
+      <c r="B30" s="7">
+        <v>6.4</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.45714285714285718</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>15</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
+      <c r="B31" s="7">
+        <v>6.4</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.42666666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C32" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C33" s="7">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C34" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>4</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C35" s="7">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>5</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C36" s="7">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>6</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C37" s="7">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>7</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C38" s="7">
-        <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>8</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C39" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>9</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C40" s="7">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>10</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C41" s="7">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>11</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C42" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13636363636363635</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>12</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C43" s="7">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>13</v>
-      </c>
-      <c r="B44" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C44" s="7">
-        <f t="shared" si="0"/>
-        <v>0.11538461538461539</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>14</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C45" s="7">
-        <f t="shared" si="0"/>
-        <v>0.10714285714285714</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>15</v>
-      </c>
-      <c r="B46" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C46" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>1</v>
-      </c>
-      <c r="B47" s="7">
-        <v>2</v>
-      </c>
-      <c r="C47" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>2</v>
-      </c>
-      <c r="B48" s="5">
-        <v>2</v>
-      </c>
-      <c r="C48" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>3</v>
-      </c>
-      <c r="B49" s="5">
-        <v>2</v>
-      </c>
-      <c r="C49" s="7">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>4</v>
-      </c>
-      <c r="B50" s="5">
-        <v>2</v>
-      </c>
-      <c r="C50" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>5</v>
-      </c>
-      <c r="B51" s="5">
-        <v>2</v>
-      </c>
-      <c r="C51" s="7">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>6</v>
-      </c>
-      <c r="B52" s="5">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>7</v>
-      </c>
-      <c r="B53" s="5">
-        <v>2</v>
-      </c>
-      <c r="C53" s="7">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>8</v>
-      </c>
-      <c r="B54" s="5">
-        <v>2</v>
-      </c>
-      <c r="C54" s="7">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>9</v>
-      </c>
-      <c r="B55" s="5">
-        <v>2</v>
-      </c>
-      <c r="C55" s="7">
-        <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>10</v>
-      </c>
-      <c r="B56" s="5">
-        <v>2</v>
-      </c>
-      <c r="C56" s="7">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>11</v>
-      </c>
-      <c r="B57" s="5">
-        <v>2</v>
-      </c>
-      <c r="C57" s="7">
-        <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>12</v>
-      </c>
-      <c r="B58" s="5">
-        <v>2</v>
-      </c>
-      <c r="C58" s="7">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>13</v>
-      </c>
-      <c r="B59" s="5">
-        <v>2</v>
-      </c>
-      <c r="C59" s="7">
-        <f t="shared" si="0"/>
-        <v>0.15384615384615385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>14</v>
-      </c>
-      <c r="B60" s="5">
-        <v>2</v>
-      </c>
-      <c r="C60" s="7">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>15</v>
-      </c>
-      <c r="B61" s="5">
-        <v>2</v>
-      </c>
-      <c r="C61" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9806,7 +9226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FA1307-3658-4772-B802-102BF882E019}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
